--- a/运营数据/长沙.xlsx
+++ b/运营数据/长沙.xlsx
@@ -341,7 +341,7 @@
     <row r="3">
       <c r="A3" s="7" t="inlineStr">
         <is>
-          <t>GX20190731141321149</t>
+          <t>GX20190816171041997</t>
         </is>
       </c>
       <c r="B3" s="8" t="inlineStr">
@@ -350,32 +350,32 @@
         </is>
       </c>
       <c r="C3" s="9" t="n">
-        <v>43677.592361111114</v>
+        <v>43693.71527777778</v>
       </c>
       <c r="D3" s="10" t="inlineStr">
         <is>
-          <t>郭雅</t>
+          <t>刘雁飞</t>
         </is>
       </c>
       <c r="E3" s="11" t="inlineStr">
         <is>
-          <t>13828462365</t>
+          <t>13467699016</t>
         </is>
       </c>
       <c r="F3" s="12" t="n">
-        <v>43677.604166666664</v>
+        <v>43693.73611111111</v>
       </c>
       <c r="G3" s="13" t="inlineStr">
         <is>
-          <t>420624198911031819</t>
+          <t/>
         </is>
       </c>
       <c r="H3" s="14" t="n">
-        <v>43678.604166666664</v>
+        <v>43695.447916666664</v>
       </c>
       <c r="I3" s="15" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="J3" s="16" t="inlineStr">
@@ -390,20 +390,20 @@
       </c>
       <c r="L3" s="18" t="inlineStr">
         <is>
-          <t>C-HR</t>
+          <t>凯美瑞</t>
         </is>
       </c>
       <c r="M3" s="19" t="inlineStr">
         <is>
-          <t>湘AY80A7</t>
+          <t>湘AS60K5</t>
         </is>
       </c>
       <c r="N3" s="20" t="n">
-        <v>208.0</v>
+        <v>98.0</v>
       </c>
       <c r="O3" s="21" t="inlineStr">
         <is>
-          <t>已取车</t>
+          <t>已还车</t>
         </is>
       </c>
       <c r="P3" s="22" t="inlineStr">
@@ -420,77 +420,630 @@
     <row r="4">
       <c r="A4" s="7" t="inlineStr">
         <is>
+          <t>GX20190811171611335</t>
+        </is>
+      </c>
+      <c r="B4" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C4" s="9" t="n">
+        <v>43688.71944444445</v>
+      </c>
+      <c r="D4" s="10" t="inlineStr">
+        <is>
+          <t>胡海艳</t>
+        </is>
+      </c>
+      <c r="E4" s="11" t="inlineStr">
+        <is>
+          <t>18773193633</t>
+        </is>
+      </c>
+      <c r="F4" s="12" t="n">
+        <v>43688.75</v>
+      </c>
+      <c r="G4" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H4" s="14" t="n">
+        <v>43689.73055555556</v>
+      </c>
+      <c r="I4" s="15" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="J4" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田浏阳华运丰关口店</t>
+        </is>
+      </c>
+      <c r="K4" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田浏阳华运丰关口店</t>
+        </is>
+      </c>
+      <c r="L4" s="18" t="inlineStr">
+        <is>
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M4" s="19" t="inlineStr">
+        <is>
+          <t>湘A805CV</t>
+        </is>
+      </c>
+      <c r="N4" s="20" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="O4" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P4" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q4" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="inlineStr">
+        <is>
+          <t>GX20190810082440031</t>
+        </is>
+      </c>
+      <c r="B5" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C5" s="9" t="n">
+        <v>43687.35</v>
+      </c>
+      <c r="D5" s="10" t="inlineStr">
+        <is>
+          <t>曾祥兵</t>
+        </is>
+      </c>
+      <c r="E5" s="11" t="inlineStr">
+        <is>
+          <t>18627592000</t>
+        </is>
+      </c>
+      <c r="F5" s="12" t="n">
+        <v>43687.375</v>
+      </c>
+      <c r="G5" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H5" s="14" t="n">
+        <v>43688.375</v>
+      </c>
+      <c r="I5" s="15" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="J5" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田浏阳华运丰关口店</t>
+        </is>
+      </c>
+      <c r="K5" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田浏阳华运丰关口店</t>
+        </is>
+      </c>
+      <c r="L5" s="18" t="inlineStr">
+        <is>
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M5" s="19" t="inlineStr">
+        <is>
+          <t>湘AU6P82</t>
+        </is>
+      </c>
+      <c r="N5" s="20" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="O5" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P5" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q5" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="inlineStr">
+        <is>
+          <t>GX20190809225832372</t>
+        </is>
+      </c>
+      <c r="B6" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C6" s="9" t="n">
+        <v>43686.95694444444</v>
+      </c>
+      <c r="D6" s="10" t="inlineStr">
+        <is>
+          <t>李朵</t>
+        </is>
+      </c>
+      <c r="E6" s="11" t="inlineStr">
+        <is>
+          <t>15173194420</t>
+        </is>
+      </c>
+      <c r="F6" s="12" t="n">
+        <v>43687.375</v>
+      </c>
+      <c r="G6" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H6" s="14" t="n">
+        <v>43687.66805555556</v>
+      </c>
+      <c r="I6" s="15" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="J6" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田浏阳华运丰关口店</t>
+        </is>
+      </c>
+      <c r="K6" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田浏阳华运丰关口店</t>
+        </is>
+      </c>
+      <c r="L6" s="18" t="inlineStr">
+        <is>
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M6" s="19" t="inlineStr">
+        <is>
+          <t>湘A805CV</t>
+        </is>
+      </c>
+      <c r="N6" s="20" t="n">
+        <v>228.0</v>
+      </c>
+      <c r="O6" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P6" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q6" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="inlineStr">
+        <is>
+          <t>GX20190809173645488</t>
+        </is>
+      </c>
+      <c r="B7" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C7" s="9" t="n">
+        <v>43686.73333333333</v>
+      </c>
+      <c r="D7" s="10" t="inlineStr">
+        <is>
+          <t>刘祥贵</t>
+        </is>
+      </c>
+      <c r="E7" s="11" t="inlineStr">
+        <is>
+          <t>17673098854</t>
+        </is>
+      </c>
+      <c r="F7" s="12" t="n">
+        <v>43690.375</v>
+      </c>
+      <c r="G7" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H7" s="14" t="n">
+        <v>43691.375</v>
+      </c>
+      <c r="I7" s="15" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="J7" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田长沙华运丰四方店</t>
+        </is>
+      </c>
+      <c r="K7" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田长沙华运丰四方店</t>
+        </is>
+      </c>
+      <c r="L7" s="18" t="inlineStr">
+        <is>
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M7" s="19" t="inlineStr">
+        <is>
+          <t>湘A71Z03</t>
+        </is>
+      </c>
+      <c r="N7" s="20" t="n">
+        <v>258.0</v>
+      </c>
+      <c r="O7" s="21" t="inlineStr">
+        <is>
+          <t>已取消</t>
+        </is>
+      </c>
+      <c r="P7" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q7" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="inlineStr">
+        <is>
+          <t>GX20190803161208932</t>
+        </is>
+      </c>
+      <c r="B8" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C8" s="9" t="n">
+        <v>43680.675</v>
+      </c>
+      <c r="D8" s="10" t="inlineStr">
+        <is>
+          <t>15608419995</t>
+        </is>
+      </c>
+      <c r="E8" s="11" t="inlineStr">
+        <is>
+          <t>15608419995</t>
+        </is>
+      </c>
+      <c r="F8" s="12" t="n">
+        <v>43682.375</v>
+      </c>
+      <c r="G8" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H8" s="14" t="n">
+        <v>43683.375</v>
+      </c>
+      <c r="I8" s="15" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="J8" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田长沙坤宝天心店</t>
+        </is>
+      </c>
+      <c r="K8" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田长沙坤宝天心店</t>
+        </is>
+      </c>
+      <c r="L8" s="18" t="inlineStr">
+        <is>
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M8" s="19" t="inlineStr">
+        <is>
+          <t>湘AW60U7</t>
+        </is>
+      </c>
+      <c r="N8" s="20" t="n">
+        <v>208.0</v>
+      </c>
+      <c r="O8" s="21" t="inlineStr">
+        <is>
+          <t>已取消</t>
+        </is>
+      </c>
+      <c r="P8" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q8" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="inlineStr">
+        <is>
+          <t>GX20190801151545473</t>
+        </is>
+      </c>
+      <c r="B9" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C9" s="9" t="n">
+        <v>43678.635416666664</v>
+      </c>
+      <c r="D9" s="10" t="inlineStr">
+        <is>
+          <t>15608419995</t>
+        </is>
+      </c>
+      <c r="E9" s="11" t="inlineStr">
+        <is>
+          <t>15608419995</t>
+        </is>
+      </c>
+      <c r="F9" s="12" t="n">
+        <v>43678.729166666664</v>
+      </c>
+      <c r="G9" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H9" s="14" t="n">
+        <v>43679.729166666664</v>
+      </c>
+      <c r="I9" s="15" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="J9" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田长沙长威中南店</t>
+        </is>
+      </c>
+      <c r="K9" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田长沙长威中南店</t>
+        </is>
+      </c>
+      <c r="L9" s="18" t="inlineStr">
+        <is>
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M9" s="19" t="inlineStr">
+        <is>
+          <t>湘AY80A7</t>
+        </is>
+      </c>
+      <c r="N9" s="20" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="O9" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P9" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q9" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>GX20190731141321149</t>
+        </is>
+      </c>
+      <c r="B10" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C10" s="9" t="n">
+        <v>43677.592361111114</v>
+      </c>
+      <c r="D10" s="10" t="inlineStr">
+        <is>
+          <t>郭雅</t>
+        </is>
+      </c>
+      <c r="E10" s="11" t="inlineStr">
+        <is>
+          <t>13828462365</t>
+        </is>
+      </c>
+      <c r="F10" s="12" t="n">
+        <v>43677.604166666664</v>
+      </c>
+      <c r="G10" s="13" t="inlineStr">
+        <is>
+          <t>420624198911031819</t>
+        </is>
+      </c>
+      <c r="H10" s="14" t="n">
+        <v>43678.604166666664</v>
+      </c>
+      <c r="I10" s="15" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="J10" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田长沙长威中南店</t>
+        </is>
+      </c>
+      <c r="K10" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田长沙长威中南店</t>
+        </is>
+      </c>
+      <c r="L10" s="18" t="inlineStr">
+        <is>
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M10" s="19" t="inlineStr">
+        <is>
+          <t>湘AY80A7</t>
+        </is>
+      </c>
+      <c r="N10" s="20" t="n">
+        <v>208.0</v>
+      </c>
+      <c r="O10" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P10" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q10" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="inlineStr">
+        <is>
           <t>GX20190726182353425</t>
         </is>
       </c>
-      <c r="B4" s="8" t="inlineStr">
+      <c r="B11" s="8" t="inlineStr">
         <is>
           <t>短租</t>
         </is>
       </c>
-      <c r="C4" s="9" t="n">
+      <c r="C11" s="9" t="n">
         <v>43672.76597222222</v>
       </c>
-      <c r="D4" s="10" t="inlineStr">
+      <c r="D11" s="10" t="inlineStr">
         <is>
           <t>15874888323</t>
         </is>
       </c>
-      <c r="E4" s="11" t="inlineStr">
+      <c r="E11" s="11" t="inlineStr">
         <is>
           <t>15874888323</t>
         </is>
       </c>
-      <c r="F4" s="12" t="n">
+      <c r="F11" s="12" t="n">
         <v>43673.458333333336</v>
       </c>
-      <c r="G4" s="13" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H4" s="14" t="n">
+      <c r="G11" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H11" s="14" t="n">
         <v>43674.458333333336</v>
       </c>
-      <c r="I4" s="15" t="inlineStr">
+      <c r="I11" s="15" t="inlineStr">
         <is>
           <t>1.00</t>
         </is>
       </c>
-      <c r="J4" s="16" t="inlineStr">
+      <c r="J11" s="16" t="inlineStr">
         <is>
           <t>广汽丰田浏阳华运丰关口店</t>
         </is>
       </c>
-      <c r="K4" s="17" t="inlineStr">
+      <c r="K11" s="17" t="inlineStr">
         <is>
           <t>广汽丰田浏阳华运丰关口店</t>
         </is>
       </c>
-      <c r="L4" s="18" t="inlineStr">
+      <c r="L11" s="18" t="inlineStr">
         <is>
           <t>C-HR</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N4" s="20" t="n">
+      <c r="M11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N11" s="20" t="n">
         <v>228.0</v>
       </c>
-      <c r="O4" s="21" t="inlineStr">
+      <c r="O11" s="21" t="inlineStr">
         <is>
           <t>已取消</t>
         </is>
       </c>
-      <c r="P4" s="22" t="inlineStr">
+      <c r="P11" s="22" t="inlineStr">
         <is>
           <t>到店支付</t>
         </is>
       </c>
-      <c r="Q4" s="23" t="inlineStr">
+      <c r="Q11" s="23" t="inlineStr">
         <is>
           <t/>
         </is>
